--- a/tools/excel/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M_copy.xlsx
+++ b/tools/excel/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\NIS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FCC060-54C7-48A5-890D-FAB4C91240CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83E1B62-47F0-46B3-B704-7BA292910223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -11570,7 +11570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -11601,7 +11601,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11896,7 +11896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P440"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
     </sheetView>
